--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481136.553985874</v>
+        <v>3478592.744478791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7871646.281108151</v>
+        <v>7871646.281108152</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.713880001506</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230858991</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>123.7911484401889</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.713880001506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22.25920201235092</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.7997915490519</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135088</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>211.9835291341801</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>124.0596109626755</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.33708868093378</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>26.4355349396264</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>101.4926604386298</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>257.933001447509</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059663067</v>
+        <v>18.47335059662579</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>36.87724244866799</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932180474</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,13 +1427,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174106</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695518</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012156</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634777</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487391</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428507</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,19 +3241,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>285.5970594671152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012048</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012048</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991314</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601762</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946884</v>
+        <v>900.5447187946885</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298164</v>
+        <v>686.1106626298165</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709452</v>
+        <v>432.4256445709453</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709452</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709452</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899463</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165018</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5660780344867</v>
+        <v>218.0341821179656</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5660780344867</v>
+        <v>43.58115283683858</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>43.58115283683858</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012048</v>
@@ -4410,19 +4410,19 @@
         <v>21.09711040012048</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957456</v>
+        <v>121.6535314649666</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298711</v>
+        <v>268.3979551252633</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263948</v>
+        <v>529.4746963267543</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289997</v>
+        <v>739.5286634293593</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557294</v>
+        <v>909.4672107560891</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166539</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166539</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166539</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742814</v>
+        <v>887.8833378166539</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742814</v>
+        <v>633.6459810884523</v>
       </c>
       <c r="X3" t="n">
-        <v>611.8519115687486</v>
+        <v>425.7944808829195</v>
       </c>
       <c r="Y3" t="n">
-        <v>484.7814150545548</v>
+        <v>218.0341821179656</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>619.9381639592817</v>
+        <v>101.537304401485</v>
       </c>
       <c r="C4" t="n">
-        <v>619.9381639592817</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="D4" t="n">
-        <v>469.821524546946</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012048</v>
@@ -4489,16 +4489,16 @@
         <v>21.09711040012048</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287945</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375332</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075537</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="T4" t="n">
-        <v>840.7307431028119</v>
+        <v>622.5994491745497</v>
       </c>
       <c r="U4" t="n">
-        <v>840.7307431028119</v>
+        <v>622.5994491745497</v>
       </c>
       <c r="V4" t="n">
-        <v>840.7307431028119</v>
+        <v>367.9149609686629</v>
       </c>
       <c r="W4" t="n">
-        <v>840.7307431028119</v>
+        <v>101.537304401485</v>
       </c>
       <c r="X4" t="n">
-        <v>840.7307431028119</v>
+        <v>101.537304401485</v>
       </c>
       <c r="Y4" t="n">
-        <v>619.9381639592817</v>
+        <v>101.537304401485</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>419.7330060626387</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>419.7330060626387</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>419.7330060626387</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>419.7330060626387</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>412.7875053134352</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>146.4098487462574</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,19 +4565,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946886</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298166</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298166</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>419.7330060626387</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>419.7330060626387</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>419.7330060626387</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>419.7330060626387</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678.8798842210024</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>504.4268549398754</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>355.4924452786241</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
-        <v>196.2549902731686</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>49.7204323000536</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>49.7204323000536</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>49.7204323000536</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006024</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006024</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>1054.855520006024</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>847.0952212410705</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>761.7753028937693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>761.7753028937693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>761.7753028937693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>613.8622093113762</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>466.9722618134659</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4729,46 +4729,46 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1028.152959460947</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>761.7753028937693</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>761.7753028937693</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7753028937693</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>761.7753028937693</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>761.7753028937693</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>797.0507894711503</v>
+        <v>981.8557524576242</v>
       </c>
       <c r="C8" t="n">
-        <v>428.0882725307386</v>
+        <v>612.8932355172126</v>
       </c>
       <c r="D8" t="n">
-        <v>69.82257392398809</v>
+        <v>612.8932355172126</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398809</v>
+        <v>227.1049829189683</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478461</v>
+        <v>220.1594821697649</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685584</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685584</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467179</v>
+        <v>187.3702251467174</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607439</v>
+        <v>442.1757437607429</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045954</v>
+        <v>795.186282904594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209589</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661172</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342792</v>
+        <v>2351.81067643906</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342792</v>
+        <v>2098.22949796463</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.024375042278</v>
+        <v>2098.22949796463</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.255719772164</v>
+        <v>1745.460842694516</v>
       </c>
       <c r="X8" t="n">
-        <v>1573.789961511084</v>
+        <v>1371.995084433436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1183.650629535272</v>
+        <v>981.8557524576242</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010868</v>
+        <v>929.5097208010818</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199598</v>
+        <v>755.0566915199548</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587086</v>
+        <v>606.1222818587036</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532531</v>
+        <v>446.8848268532481</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801381</v>
+        <v>300.3502688801331</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763262</v>
+        <v>163.6480708763212</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530446258</v>
+        <v>69.87120530445755</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>113.488757963719</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148192</v>
+        <v>298.0857543148185</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996603</v>
+        <v>931.8250374996583</v>
       </c>
       <c r="M9" t="n">
-        <v>1294.891505973963</v>
+        <v>1294.89150597396</v>
       </c>
       <c r="N9" t="n">
-        <v>1681.975908446533</v>
+        <v>1842.13306147187</v>
       </c>
       <c r="O9" t="n">
-        <v>2013.862718433923</v>
+        <v>2174.019871459259</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888889</v>
+        <v>2421.055229888884</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442634</v>
+        <v>2536.272628442629</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685356</v>
+        <v>2230.816477685351</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751586</v>
+        <v>2002.726321751581</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519843</v>
+        <v>1767.574213519838</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791642</v>
+        <v>1513.336856791637</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586109</v>
+        <v>1305.485356586104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821155</v>
+        <v>1097.72505782115</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274019</v>
+        <v>535.0245104929822</v>
       </c>
       <c r="C10" t="n">
-        <v>496.130935699495</v>
+        <v>366.0883275650754</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871593</v>
+        <v>366.0883275650754</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047662</v>
+        <v>366.0883275650754</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685584</v>
+        <v>219.198380067165</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838019</v>
+        <v>76.63468308380166</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676576</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368933</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904054</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477367</v>
+        <v>1495.906315565482</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477367</v>
+        <v>1272.925014039888</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477367</v>
+        <v>983.8066405345297</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.91488353615</v>
+        <v>983.8066405345297</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.497713499189</v>
+        <v>983.8066405345297</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>755.8170896365124</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576416</v>
+        <v>535.0245104929822</v>
       </c>
     </row>
     <row r="11">
@@ -5021,70 +5021,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191923</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349509</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349509</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989557</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228844</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400735</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121667</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121667</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121667</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121667</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270468</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713843</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703131</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,37 +5282,37 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708866</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429798</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429798</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429798</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429798</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713843</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011261</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797183</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438182</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998425</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740073</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908935</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908935</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138426</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703127</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708866</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429798</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429798</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429798</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429798</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.27973288552</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679634</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642673</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744656</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011261</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400744</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121676</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121676</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121676</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121676</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270477</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111693</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913852</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,13 +6771,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
@@ -6789,13 +6789,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>781.3544215660706</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211313</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127258</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658819</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069106</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8535,19 +8535,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084432</v>
+        <v>342.6295957084425</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>161.7749020457981</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>161.7749020457984</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392193953</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392193999</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405049</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392193864</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564457</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.5874149221289713</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>692569.3540887148</v>
+        <v>692569.3540887147</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>692569.3540887148</v>
+        <v>692569.3540887147</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494643</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580816</v>
+        <v>390680.00765808</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606908</v>
+        <v>507909.2320606925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.920821771112969e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911384</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101823</v>
+        <v>95270.23779101795</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954684</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,25 +26421,25 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501111</v>
+        <v>140465.2517501114</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179372</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179364</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179365</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179372</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179344</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26448,16 +26448,16 @@
         <v>11167.0322517935</v>
       </c>
       <c r="M4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="N4" t="n">
-        <v>11167.03225179358</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179356</v>
-      </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567915</v>
+        <v>92902.86757567905</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-234899.512290017</v>
       </c>
       <c r="C6" t="n">
-        <v>445188.4683011759</v>
+        <v>445188.4683011758</v>
       </c>
       <c r="D6" t="n">
-        <v>135415.5101405905</v>
+        <v>135415.5101405923</v>
       </c>
       <c r="E6" t="n">
-        <v>126411.8105768635</v>
+        <v>126377.0726514262</v>
       </c>
       <c r="F6" t="n">
-        <v>634321.0426375546</v>
+        <v>634286.3047121192</v>
       </c>
       <c r="G6" t="n">
-        <v>634321.0426375548</v>
+        <v>634286.304712119</v>
       </c>
       <c r="H6" t="n">
-        <v>634321.0426375545</v>
+        <v>634286.3047121189</v>
       </c>
       <c r="I6" t="n">
-        <v>634321.0426375545</v>
+        <v>634286.304712119</v>
       </c>
       <c r="J6" t="n">
-        <v>565321.8882184405</v>
+        <v>565287.150293005</v>
       </c>
       <c r="K6" t="n">
-        <v>634321.0426375545</v>
+        <v>634286.3047121188</v>
       </c>
       <c r="L6" t="n">
-        <v>539050.8048465363</v>
+        <v>539016.0669211007</v>
       </c>
       <c r="M6" t="n">
-        <v>501603.0669420862</v>
+        <v>501568.3290166503</v>
       </c>
       <c r="N6" t="n">
-        <v>634321.0426375545</v>
+        <v>634286.304712119</v>
       </c>
       <c r="O6" t="n">
-        <v>634321.0426375547</v>
+        <v>634286.304712119</v>
       </c>
       <c r="P6" t="n">
-        <v>634321.0426375548</v>
+        <v>634286.3047121188</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627848</v>
+        <v>933.7024595627837</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26750,7 +26750,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085698</v>
+        <v>640.1406900856967</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933068</v>
+        <v>319.6474457933055</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788887</v>
+        <v>434.2730407788903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841906</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139499</v>
+        <v>532.5675980139516</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015052</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139499</v>
+        <v>532.5675980139514</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841906</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139499</v>
+        <v>532.5675980139516</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.120294644204</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842358</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>245.9399522382801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545476</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>135.38587844305</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.88290422825246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727695</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.23081674538574</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508497</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>190.1340216665925</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>15.58471532057183</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>196.7788109399395</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.0564993496197</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465005</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>69.81925702262589</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164521562</v>
+        <v>1.776449164526529</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>157.7966078017164</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020233</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28147,13 +28147,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.444866911366201e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.288134803711607e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.895584461859065e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28810,13 +28810,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.317378390283387e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885564</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954668</v>
+        <v>38.44132789546675</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597254</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.46916277632</v>
+        <v>477.4691627763194</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354942</v>
+        <v>592.3427171354934</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359953</v>
+        <v>659.0954050359945</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752509</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307906</v>
+        <v>632.4356192307898</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983032</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140488</v>
+        <v>85.53465245140478</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508451</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035144</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026285</v>
+        <v>69.14683309026276</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502175</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.065474157129</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617177</v>
+        <v>508.867840461717</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152224</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519093</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947597</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463707</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366407</v>
+        <v>37.30405581366402</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133952</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6342251841589</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307429</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942766</v>
+        <v>7.194100917942757</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650352</v>
+        <v>0.09183958618650341</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>353.3934907042778</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622672</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>465.2170623840764</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>101.5721424897436</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>263.713880001506</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966404</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958071</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705677</v>
+        <v>137.5343130705673</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313394</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165507</v>
+        <v>356.5763021655062</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087226</v>
+        <v>428.7491718087218</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559181</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091039</v>
+        <v>402.3374078091031</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430337</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797643</v>
+        <v>183.0384768797638</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2001390723434</v>
+        <v>20.20013907234312</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127625</v>
+        <v>62.90656844127602</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758585</v>
+        <v>186.4616124758581</v>
       </c>
       <c r="L9" t="n">
-        <v>640.140690085698</v>
+        <v>640.1406900856967</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396993</v>
+        <v>366.7338065396987</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318891</v>
+        <v>552.7692479776866</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074649</v>
+        <v>335.2392020074643</v>
       </c>
       <c r="P9" t="n">
-        <v>411.3055671262279</v>
+        <v>249.530665080429</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603492</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783599</v>
+        <v>24.53548676783585</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787334</v>
+        <v>25.68023017873325</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009329</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641533</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254641</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186656</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035767</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228612</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>219.4190832899476</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402489</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396398</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>322.620817939632</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
